--- a/pendulum/work_on_memory/memory_raw_data.xlsx
+++ b/pendulum/work_on_memory/memory_raw_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/memory_pendulum_work_on/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/work_on_memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B513F5-4747-7945-A00D-F73DC786B92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3912739-DF93-5245-8A32-E3FE662A6DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{F0179072-8820-814B-8D68-6BA03E148DB0}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15680" xr2:uid="{F0179072-8820-814B-8D68-6BA03E148DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>Row 1</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ads</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A27434-6935-3349-A2A1-C839CB3E3958}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -403,6 +409,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pendulum/work_on_memory/memory_raw_data.xlsx
+++ b/pendulum/work_on_memory/memory_raw_data.xlsx
@@ -1,42 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/work_on_memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3912739-DF93-5245-8A32-E3FE662A6DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370DAEE-1BD6-9148-B114-B5D95F75CAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15680" xr2:uid="{F0179072-8820-814B-8D68-6BA03E148DB0}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Row 1</t>
   </si>
@@ -53,7 +37,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -87,7 +71,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -134,20 +118,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -175,31 +159,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -227,23 +194,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,156 +205,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A27434-6935-3349-A2A1-C839CB3E3958}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,11 +409,6 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>

--- a/pendulum/work_on_memory/memory_raw_data.xlsx
+++ b/pendulum/work_on_memory/memory_raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/work_on_memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370DAEE-1BD6-9148-B114-B5D95F75CAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5FDB4-61FB-7640-8A3E-DA38EFF09C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
-  <si>
-    <t>Row 1</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>ads</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>limit(sin(a2), limit(0, read(a0, a1), sub(read(a0, a1), add(write(a0, conditional(protectedDiv(0, protectedDiv(cos(a2), sin(abs(sub(cos(0), a1))))), a2), a2), a1))), protectedLog(a2))</t>
+  </si>
+  <si>
+    <t>sub(read(a0, a1), add(add(add(a2, a2), a2), add(a2, add(add(a2, write(a0, sin(0), add(sin(read(a0, limit(a2, protectedLog(a2), a2))), a2))), add(a2, sub(protectedDiv(abs(a2), a2), read(a0, read(a0, cos(conditional(a1, 0))))))))))</t>
+  </si>
+  <si>
+    <t>protectedDiv(add(read(a0, read(a0, sub(sin(add(read(a0, a1), protectedDiv(0, a1))), protectedDiv(0, a2)))), a2), conditional(sin(sin(read(a0, a1))), write(a0, limit(protectedLog(read(a0, add(add(conditional(abs(sin(a1)), a1), a2), sin(sin(a2))))), abs(limit(0, read(a0, a2), 0)), conditional(protectedDiv(0, a1), protectedDiv(a1, conditional(a2, read(a0, 0))))), a2)))</t>
+  </si>
+  <si>
+    <t>sub(sub(limit(a2, read(a0, a2), protectedLog(read(a0, abs(0)))), a2), add(write(a0, protectedLog(sub(conditional(a1, a2), sin(a2))), write(a0, protectedDiv(a1, limit(0, 0, limit(write(a0, a1, write(a0, 0, a2)), a2, a2))), a2)), limit(sin(cos(sub(protectedLog(abs(a2)), a2))), sub(0, limit(a2, a1, 0)), a2)))</t>
+  </si>
+  <si>
+    <t>sub(sub(read(a0, a1), add(write(a0, abs(a2), protectedDiv(add(a2, a2), protectedLog(write(a0, sin(cos(0)), abs(a1))))), cos(read(a0, read(a0, abs(sub(a1, conditional(limit(a2, limit(0, a1, a2), a2), a1)))))))), sub(a2, protectedLog(a2)))</t>
+  </si>
+  <si>
+    <t>sub(read(a0, a2), write(a0, sub(conditional(write(a0, a1, protectedLog(conditional(a1, protectedLog(a1)))), add(abs(0), sub(abs(write(a0, a1, a1)), add(protectedDiv(a2, a2), limit(0, 0, 0))))), conditional(0, conditional(conditional(a2, abs(a1)), a1))), protectedDiv(a2, conditional(sub(a2, sin(sin(write(a0, abs(conditional(sin(a1), 0)), a2)))), a2))))</t>
+  </si>
+  <si>
+    <t>sub(sub(0, read(a0, a1)), add(protectedDiv(conditional(a2, read(a0, read(a0, a1))), a2), add(write(a0, a1, sin(a2)), a2)))</t>
+  </si>
+  <si>
+    <t>sub(protectedDiv(sub(protectedDiv(conditional(read(a0, a2), a2), a2), sin(limit(0, 0, a1))), cos(sub(write(a0, 0, a2), cos(limit(cos(sin(a2)), 0, read(a0, 0)))))), a2)</t>
+  </si>
+  <si>
+    <t>sub(sub(read(a0, 0), protectedDiv(limit(sin(a1), protectedDiv(a2, protectedDiv(read(a0, a2), a1)), protectedLog(read(a0, a2))), a2)), write(a0, a2, a2))</t>
+  </si>
+  <si>
+    <t>protectedDiv(sub(sub(0, write(a0, a2, conditional(conditional(a2, 0), sin(read(a0, 0))))), write(a0, protectedDiv(a1, a1), conditional(conditional(a2, 0), read(a0, 0)))), a2)</t>
   </si>
 </sst>
 </file>
@@ -371,10 +392,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -382,34 +403,84 @@
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>-846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>-435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-125</v>
       </c>
     </row>
   </sheetData>

--- a/pendulum/work_on_memory/memory_raw_data.xlsx
+++ b/pendulum/work_on_memory/memory_raw_data.xlsx
@@ -1,73 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/work_on_memory/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5FDB4-61FB-7640-8A3E-DA38EFF09C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29740" yWindow="3780" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hi" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="9.81" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>limit(sin(a2), limit(0, read(a0, a1), sub(read(a0, a1), add(write(a0, conditional(protectedDiv(0, protectedDiv(cos(a2), sin(abs(sub(cos(0), a1))))), a2), a2), a1))), protectedLog(a2))</t>
-  </si>
-  <si>
-    <t>sub(read(a0, a1), add(add(add(a2, a2), a2), add(a2, add(add(a2, write(a0, sin(0), add(sin(read(a0, limit(a2, protectedLog(a2), a2))), a2))), add(a2, sub(protectedDiv(abs(a2), a2), read(a0, read(a0, cos(conditional(a1, 0))))))))))</t>
-  </si>
-  <si>
-    <t>protectedDiv(add(read(a0, read(a0, sub(sin(add(read(a0, a1), protectedDiv(0, a1))), protectedDiv(0, a2)))), a2), conditional(sin(sin(read(a0, a1))), write(a0, limit(protectedLog(read(a0, add(add(conditional(abs(sin(a1)), a1), a2), sin(sin(a2))))), abs(limit(0, read(a0, a2), 0)), conditional(protectedDiv(0, a1), protectedDiv(a1, conditional(a2, read(a0, 0))))), a2)))</t>
-  </si>
-  <si>
-    <t>sub(sub(limit(a2, read(a0, a2), protectedLog(read(a0, abs(0)))), a2), add(write(a0, protectedLog(sub(conditional(a1, a2), sin(a2))), write(a0, protectedDiv(a1, limit(0, 0, limit(write(a0, a1, write(a0, 0, a2)), a2, a2))), a2)), limit(sin(cos(sub(protectedLog(abs(a2)), a2))), sub(0, limit(a2, a1, 0)), a2)))</t>
-  </si>
-  <si>
-    <t>sub(sub(read(a0, a1), add(write(a0, abs(a2), protectedDiv(add(a2, a2), protectedLog(write(a0, sin(cos(0)), abs(a1))))), cos(read(a0, read(a0, abs(sub(a1, conditional(limit(a2, limit(0, a1, a2), a2), a1)))))))), sub(a2, protectedLog(a2)))</t>
-  </si>
-  <si>
-    <t>sub(read(a0, a2), write(a0, sub(conditional(write(a0, a1, protectedLog(conditional(a1, protectedLog(a1)))), add(abs(0), sub(abs(write(a0, a1, a1)), add(protectedDiv(a2, a2), limit(0, 0, 0))))), conditional(0, conditional(conditional(a2, abs(a1)), a1))), protectedDiv(a2, conditional(sub(a2, sin(sin(write(a0, abs(conditional(sin(a1), 0)), a2)))), a2))))</t>
-  </si>
-  <si>
-    <t>sub(sub(0, read(a0, a1)), add(protectedDiv(conditional(a2, read(a0, read(a0, a1))), a2), add(write(a0, a1, sin(a2)), a2)))</t>
-  </si>
-  <si>
-    <t>sub(protectedDiv(sub(protectedDiv(conditional(read(a0, a2), a2), a2), sin(limit(0, 0, a1))), cos(sub(write(a0, 0, a2), cos(limit(cos(sin(a2)), 0, read(a0, 0)))))), a2)</t>
-  </si>
-  <si>
-    <t>sub(sub(read(a0, 0), protectedDiv(limit(sin(a1), protectedDiv(a2, protectedDiv(read(a0, a2), a1)), protectedLog(read(a0, a2))), a2)), write(a0, a2, a2))</t>
-  </si>
-  <si>
-    <t>protectedDiv(sub(sub(0, write(a0, a2, conditional(conditional(a2, 0), sin(read(a0, 0))))), write(a0, protectedDiv(a1, a1), conditional(conditional(a2, 0), read(a0, 0)))), a2)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,102 +408,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>-846</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-830</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-125</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hi, hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hi, hello</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/pendulum/work_on_memory/memory_raw_data.xlsx
+++ b/pendulum/work_on_memory/memory_raw_data.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/work_on_memory/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB1B37-36E6-484F-8CFB-77B6F1C06380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29740" yWindow="3780" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="29740" yWindow="3780" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hi" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="9.81" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="9.81" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t>hi, hello</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +59,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,57 +361,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>hi, hello</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hi, hello</t>
-        </is>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pendulum/work_on_memory/memory_raw_data.xlsx
+++ b/pendulum/work_on_memory/memory_raw_data.xlsx
@@ -43,7 +43,7 @@
     <t>protectedDiv(sub(a2, read(a0, read(a0, a1))), protectedLog(conditional(protectedDiv(a1, cos(a2)), limit(protectedDiv(sin(sub(a2, a2)), protectedLog(limit(a1, protectedDiv(a1, a2), a2))), a1, protectedLog(write(a0, read(a0, cos(conditional(a2, read(a0, a1)))), write(a0, sin(a1), sin(sin(a2)))))))))</t>
   </si>
   <si>
-    <t>sub(write(a0, 0, protectedDiv(read(a0, a1), cos(limit(write(a0, cos(abs(limit(a1, abs(abs(0)), 0))), a1), sub(a2, 0), a1)))), write(a0, add(abs(cos(add(a1, a1))), sub(add(sub(sin(sub(0, a1)), 0), 0), a1)), limit(0, protectedDiv(limit(read(a0, read(a0, a2)), read(a0, sub(a2, a2)), sub(0, sub(abs(write(a0, a1, conditional(protectedDiv(a1, protectedLog(cos(a2))), a2))), a2))), a2), protectedDiv(read(a0, add(a2, a2)), protectedLog(cos(a2))))))</t>
+    <t>Should not be here</t>
   </si>
 </sst>
 </file>
@@ -61,7 +61,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -419,7 +419,7 @@
     <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>-236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -435,7 +435,7 @@
         <v>-977</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -443,7 +443,7 @@
         <v>-193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -451,7 +451,7 @@
         <v>-134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -459,7 +459,7 @@
         <v>-224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -467,7 +467,7 @@
         <v>-938</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,7 +475,7 @@
         <v>-477</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -483,7 +483,7 @@
         <v>-116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -491,7 +491,7 @@
         <v>-117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>

--- a/pendulum/work_on_memory/memory_raw_data.xlsx
+++ b/pendulum/work_on_memory/memory_raw_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/work_on_memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FC034C-709C-A84D-96CC-AA4AD7F369DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1813C0B-F74F-F04D-B67A-2EE859A50875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="13" sheetId="3" r:id="rId2"/>
-    <sheet name="14" sheetId="4" r:id="rId3"/>
+    <sheet name="13" sheetId="2" r:id="rId2"/>
+    <sheet name="14" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -27,6 +27,9 @@
     <t>sub(sub(sub(protectedDiv(cos(a1), a2), protectedDiv(protectedDiv(abs(a2), read(a0, a1)), abs(read(a0, cos(a1))))), write(a0, a1, write(a0, limit(limit(protectedDiv(cos(write(a0, 0, a1)), a2), protectedLog(a1), a1), protectedLog(a2), a1), a2))), protectedLog(0))</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>ind</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
   </si>
   <si>
     <t>sub(sub(sub(sub(protectedDiv(a1, sub(a2, limit(abs(0), protectedLog(sub(a1, read(a0, 0))), read(a0, a1)))), protectedDiv(a1, read(a0, add(abs(conditional(a1, 0)), limit(sin(cos(a2)), 0, 0))))), a1), write(a0, sin(write(a0, limit(a2, a1, write(a0, a2, a1)), 0)), a2)), protectedDiv(cos(a2), conditional(add(a2, a1), a1)))</t>
-  </si>
-  <si>
-    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -502,26 +502,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>-1282</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>-554</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>-1243</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>-1018</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>-1057</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>-904</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>-962</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>-704</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>-164</v>
@@ -597,26 +597,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>-151</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>-238</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>-916</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>-266</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>-163</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>-249</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>-299</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>-157</v>

--- a/pendulum/work_on_memory/memory_raw_data.xlsx
+++ b/pendulum/work_on_memory/memory_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/work_on_memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A8C93-F55D-B34D-93A8-E1B4A6E29E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C4A0FF-0FF1-9246-BB38-438A13174F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="1920" windowWidth="17420" windowHeight="13300" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="120">
   <si>
     <t>sub(read(a0, a1), write(a0, abs(sub(abs(abs(a2)), read(a0, a2))), a2))</t>
   </si>
@@ -331,6 +331,63 @@
   </si>
   <si>
     <t>sub(memProtectedDiv(sub(0, cos(conditional(memProtectedDiv(cos(a1), cos(conditional(memProtectedDiv(read(a0, a2), sin(a2)), a2))), write(a0, add(limit(add(0, add(read(a0, a1), sub(a1, limit(a2, protectedLog(a2), a2)))), a2, a1), read(a0, write(a0, 0, a2))), a2)))), write(a0, 0, a2)), add(a2, sub(read(a0, a2), 0)))</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>slow to bring up</t>
+  </si>
+  <si>
+    <t>out of control</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>cant stabilize</t>
+  </si>
+  <si>
+    <t>angle can just hold it at an angle</t>
+  </si>
+  <si>
+    <t>angle but breaks free</t>
+  </si>
+  <si>
+    <t>can not stabilize</t>
+  </si>
+  <si>
+    <t>can't stabilize</t>
+  </si>
+  <si>
+    <t>can bring to top but cant stabilize</t>
+  </si>
+  <si>
+    <t>could not bring to top</t>
+  </si>
+  <si>
+    <t>no attempt to stabilize</t>
+  </si>
+  <si>
+    <t>holds</t>
+  </si>
+  <si>
+    <t>wobly but works</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>swinigs in circle</t>
+  </si>
+  <si>
+    <t>swings in circle</t>
+  </si>
+  <si>
+    <t>cant bring to top</t>
   </si>
 </sst>
 </file>
@@ -677,15 +734,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -693,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -701,7 +758,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -709,7 +766,7 @@
         <v>-469</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -717,7 +774,7 @@
         <v>-227</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -725,7 +782,7 @@
         <v>-121</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -733,132 +790,180 @@
         <v>-121</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7">
         <v>-766</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
       <c r="B8">
         <v>-593</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>87</v>
       </c>
       <c r="B9">
         <v>-332</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
       <c r="B10">
         <v>-141</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>89</v>
       </c>
       <c r="B11">
         <v>-104</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
       <c r="B12">
         <v>-140</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
       <c r="B13">
         <v>-429</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>92</v>
       </c>
       <c r="B14">
         <v>-306</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
       <c r="B15">
         <v>-140</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>94</v>
       </c>
       <c r="B16">
         <v>-136</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>95</v>
       </c>
       <c r="B17">
         <v>-115</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>96</v>
       </c>
       <c r="B18">
         <v>-469</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>97</v>
       </c>
       <c r="B19">
         <v>-144</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>98</v>
       </c>
       <c r="B20">
         <v>-132</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>99</v>
       </c>
       <c r="B21">
         <v>-181</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>100</v>
       </c>
       <c r="B22">
         <v>-121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -868,15 +973,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -884,60 +989,81 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2">
         <v>-134</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
         <v>-174</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4">
         <v>-105</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5">
         <v>-512</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6">
         <v>-132</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7">
         <v>-108</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8">
         <v>-419</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -947,15 +1073,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,100 +1089,136 @@
         <v>-984</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>-148</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>-129</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>-138</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>-880</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>-195</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>-481</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>-331</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>-500</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>-179</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>-193</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>-223</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>-390</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1066,13 +1228,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1080,84 +1244,114 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2">
         <v>-591</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3">
         <v>-205</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4">
         <v>-722</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5">
         <v>-197</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6">
         <v>-122</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7">
         <v>-189</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="B8">
         <v>-203</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9">
         <v>-273</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
       <c r="B10">
         <v>-139</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="B11">
         <v>-222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1167,13 +1361,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1181,76 +1377,103 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <v>-1282</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>-554</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
         <v>-1243</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
         <v>-1018</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <v>-1057</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
         <v>-904</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
         <v>-962</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
         <v>-704</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>-164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1260,13 +1483,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1274,68 +1499,92 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>-151</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>-238</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>-916</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>-266</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>-163</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>-249</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>-299</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>-157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1345,13 +1594,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1359,92 +1610,125 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2">
         <v>-1424</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
       <c r="B3">
         <v>-1073</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4">
         <v>-512</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5">
         <v>-1328</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
       <c r="B6">
         <v>-1283</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
       <c r="B7">
         <v>-1037</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
       <c r="B8">
         <v>-1193</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9">
         <v>-602</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
       <c r="B10">
         <v>-121</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
       <c r="B11">
         <v>-348</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>
       <c r="B12">
         <v>-268</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1454,13 +1738,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1468,100 +1754,136 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2">
         <v>-1274</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
       <c r="B3">
         <v>-1095</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
       <c r="B4">
         <v>-712</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
       <c r="B5">
         <v>-192</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="B6">
         <v>-1191</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
       <c r="B7">
         <v>-1327</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
       <c r="B8">
         <v>-874</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
       <c r="B9">
         <v>-750</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
       <c r="B10">
         <v>-181</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
       <c r="B11">
         <v>-967</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
       <c r="B12">
         <v>-901</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
       <c r="B13">
         <v>-1156</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1571,13 +1893,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1585,68 +1909,92 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2">
         <v>-1673</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3">
         <v>-1663</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4">
         <v>-1592</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>75</v>
       </c>
       <c r="B5">
         <v>-1285</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
       <c r="B6">
         <v>-1191</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7">
         <v>-1619</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
       <c r="B8">
         <v>-1590</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>79</v>
       </c>
       <c r="B9">
         <v>-1014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
